--- a/results/Homeopathy_excluded/mod3.galtanBYhealth.eff.MN.xlsx
+++ b/results/Homeopathy_excluded/mod3.galtanBYhealth.eff.MN.xlsx
@@ -410,25 +410,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00528960452824214</v>
+        <v>0.00528911725539595</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0202276486377802</v>
+        <v>0.0202276512543049</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0343558582937377</v>
+        <v>-0.034356350694878</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0449350673502219</v>
+        <v>0.0449345852056699</v>
       </c>
       <c r="G2" t="n">
-        <v>0.261503678601698</v>
+        <v>0.261479555332472</v>
       </c>
       <c r="H2" t="n">
-        <v>0.793704113078104</v>
+        <v>0.793722713729793</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00796641078653551</v>
+        <v>0.00796746673920198</v>
       </c>
       <c r="C3" t="n">
-        <v>0.045286940176933</v>
+        <v>0.0452870335705498</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0807943609302732</v>
+        <v>-0.080793488025732</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0967271825033443</v>
+        <v>0.096728421504136</v>
       </c>
       <c r="G3" t="n">
-        <v>0.175909671870329</v>
+        <v>0.17593262598642</v>
       </c>
       <c r="H3" t="n">
-        <v>0.860364906788322</v>
+        <v>0.860346873276537</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0113854470528119</v>
+        <v>-0.0113855567521588</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0176403714888442</v>
+        <v>0.0176403907393094</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0459599398448538</v>
+        <v>-0.0459600872744192</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02318904573923</v>
+        <v>0.0231889737701015</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.645419914201471</v>
+        <v>-0.645425428518855</v>
       </c>
       <c r="H4" t="n">
-        <v>0.518655101637527</v>
+        <v>0.518651529117253</v>
       </c>
     </row>
     <row r="5">
@@ -488,25 +488,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.00187056826196573</v>
+        <v>-0.00187102724243911</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0162146958543672</v>
+        <v>0.016214720050006</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0336507881567964</v>
+        <v>-0.0336512945598503</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0299096516328649</v>
+        <v>0.0299092400749721</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.115362525376134</v>
+        <v>-0.115390659639444</v>
       </c>
       <c r="H5" t="n">
-        <v>0.908157781018084</v>
+        <v>0.908135482038102</v>
       </c>
     </row>
   </sheetData>
